--- a/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6699</v>
+        <v>6651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01647597922743393</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05826203561158254</v>
+        <v>0.05783694232288601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5349</v>
+        <v>5353</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18435</v>
+        <v>18709</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0714788320828683</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03577365801387093</v>
+        <v>0.03579590235634802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.123282388964688</v>
+        <v>0.1251138098917083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>12583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6701</v>
+        <v>6941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20915</v>
+        <v>22792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04756905213457513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02533290631922129</v>
+        <v>0.02623964772032576</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07906676849994762</v>
+        <v>0.08616128097851976</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7410</v>
+        <v>7549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20928</v>
+        <v>20363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.11442460793294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06443685714828279</v>
+        <v>0.06564992561034731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1819974286692093</v>
+        <v>0.1770874296033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>11794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5483</v>
+        <v>6173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19694</v>
+        <v>20637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07886812051416732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0366643144319152</v>
+        <v>0.04128196634202012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1317036046941823</v>
+        <v>0.1380059639777464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -857,19 +857,19 @@
         <v>24951</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16261</v>
+        <v>16476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34986</v>
+        <v>35445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09432455133152105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06147402874163465</v>
+        <v>0.06228705566572533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.132260970707116</v>
+        <v>0.1339967088254089</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>99937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91839</v>
+        <v>92696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106378</v>
+        <v>105807</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8690994128396261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7986731830562717</v>
+        <v>0.8061322613082353</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9251182629305587</v>
+        <v>0.9201489677032266</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -907,19 +907,19 @@
         <v>127053</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>117126</v>
+        <v>115957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>135146</v>
+        <v>135250</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8496530474029644</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7832704987856092</v>
+        <v>0.7754479658943901</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9037744976926139</v>
+        <v>0.9044731589792776</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>233</v>
@@ -928,19 +928,19 @@
         <v>226990</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>215106</v>
+        <v>214302</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>237334</v>
+        <v>237631</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8581063965339039</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8131800886650402</v>
+        <v>0.8101425226447053</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8972122221925546</v>
+        <v>0.8983342909291405</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>5759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2089</v>
+        <v>2039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11351</v>
+        <v>11297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03947855854094294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01431815514308117</v>
+        <v>0.01397893803047955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07780321231511149</v>
+        <v>0.0774338803807586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1053,19 +1053,19 @@
         <v>8603</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3933</v>
+        <v>3653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18100</v>
+        <v>15817</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04709335324693718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02152955768523688</v>
+        <v>0.01999877700989302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09908199700166576</v>
+        <v>0.08658446954230833</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1074,19 +1074,19 @@
         <v>14362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7819</v>
+        <v>7885</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22956</v>
+        <v>24355</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04371228132403019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02379711279378547</v>
+        <v>0.02399702430856222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06986800859025091</v>
+        <v>0.07412620218877385</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>10415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5610</v>
+        <v>5743</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17214</v>
+        <v>17805</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07139319321061648</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03845057442983252</v>
+        <v>0.03936422013050175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1179965449869086</v>
+        <v>0.1220443682459871</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -1124,19 +1124,19 @@
         <v>30754</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21380</v>
+        <v>21445</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43615</v>
+        <v>43182</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.168349291863033</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.117035402512041</v>
+        <v>0.1173929931688251</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.238752375842146</v>
+        <v>0.2363780207965186</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -1145,19 +1145,19 @@
         <v>41169</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28454</v>
+        <v>30206</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54197</v>
+        <v>54669</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1252994716689003</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08660035838642328</v>
+        <v>0.09193306255304784</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1649484689948597</v>
+        <v>0.1663868497045305</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>129714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121831</v>
+        <v>120872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135878</v>
+        <v>136209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8891282482484406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8350907161897494</v>
+        <v>0.8285231846726512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9313762568623609</v>
+        <v>0.9336462837271537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1195,19 +1195,19 @@
         <v>143323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128927</v>
+        <v>129565</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153312</v>
+        <v>154019</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7845573548900299</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7057507371125189</v>
+        <v>0.7092431108973665</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8392378188297859</v>
+        <v>0.8431056384757246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>264</v>
@@ -1216,19 +1216,19 @@
         <v>273036</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>258291</v>
+        <v>258329</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>286823</v>
+        <v>286248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8309882470070695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7861124667378812</v>
+        <v>0.7862255262290049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8729478523658132</v>
+        <v>0.8711982807434024</v>
       </c>
     </row>
     <row r="11">
@@ -1333,19 +1333,19 @@
         <v>9303</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4758</v>
+        <v>4265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16718</v>
+        <v>16477</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06847825913103019</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03502446085652604</v>
+        <v>0.0313952763489142</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1230625057912729</v>
+        <v>0.1212878332428166</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1354,19 +1354,19 @@
         <v>9303</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4266</v>
+        <v>4531</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16944</v>
+        <v>16892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03872585902634949</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01775847927318992</v>
+        <v>0.01886151976280495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07053676400334258</v>
+        <v>0.0703202571690643</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>7106</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3649</v>
+        <v>2850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15181</v>
+        <v>13653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06808358714197484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03496447464952319</v>
+        <v>0.02731050581784995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1454558576189161</v>
+        <v>0.1308076063946205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1404,19 +1404,19 @@
         <v>11497</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6241</v>
+        <v>6019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19555</v>
+        <v>19289</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08463187663371016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04593925593266335</v>
+        <v>0.04430561165812775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1439474946500562</v>
+        <v>0.1419879373606523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1425,19 +1425,19 @@
         <v>18603</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11178</v>
+        <v>11239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29321</v>
+        <v>28663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07744198401298656</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04653257771701542</v>
+        <v>0.04678757184481556</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1220578294320833</v>
+        <v>0.1193181612366909</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>97265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89190</v>
+        <v>90718</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100722</v>
+        <v>101521</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9319164128580252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8545441423810847</v>
+        <v>0.8691923936053799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9650355253504768</v>
+        <v>0.9726894941821501</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -1475,19 +1475,19 @@
         <v>115050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>105752</v>
+        <v>104885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122201</v>
+        <v>122562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8468898642352597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7784444984419104</v>
+        <v>0.7720644309472082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8995283869383672</v>
+        <v>0.9021888958977885</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>215</v>
@@ -1496,19 +1496,19 @@
         <v>212315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>200990</v>
+        <v>200764</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>221614</v>
+        <v>221300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.883832156960664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8366891090922247</v>
+        <v>0.8357486810062121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9225419883628174</v>
+        <v>0.9212342159454434</v>
       </c>
     </row>
     <row r="15">
@@ -1600,19 +1600,19 @@
         <v>2506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6748</v>
+        <v>6728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0182643264353791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005949026053520692</v>
+        <v>0.005882007156604812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0491799123076508</v>
+        <v>0.04902954792376264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1621,19 +1621,19 @@
         <v>9786</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4546</v>
+        <v>4130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17513</v>
+        <v>16730</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04687214784374108</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0217734427453938</v>
+        <v>0.01978270224364435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08388367498255662</v>
+        <v>0.08013506768407962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1642,19 +1642,19 @@
         <v>12292</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6708</v>
+        <v>6329</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21073</v>
+        <v>21343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03552662834664429</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01938731673614419</v>
+        <v>0.01829332783264878</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06090598245535611</v>
+        <v>0.06168511474808201</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>9737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5025</v>
+        <v>5088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16219</v>
+        <v>16781</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07095724019823353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03662304943710162</v>
+        <v>0.0370774952118306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1182011621301084</v>
+        <v>0.1222932042859218</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1692,19 +1692,19 @@
         <v>26200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16281</v>
+        <v>17549</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37124</v>
+        <v>37669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1254909382271303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07798309375188928</v>
+        <v>0.08405424622326452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1778160940140057</v>
+        <v>0.1804270330268499</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1713,19 +1713,19 @@
         <v>35936</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25144</v>
+        <v>25660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48274</v>
+        <v>48612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1038635264293627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07267072146800334</v>
+        <v>0.07416190871680063</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1395218604412579</v>
+        <v>0.1404992146087625</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>124974</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>117812</v>
+        <v>117344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>130240</v>
+        <v>130410</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9107784333663874</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8585785867903213</v>
+        <v>0.8551706974062889</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9491560378873711</v>
+        <v>0.9503900068833078</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>167</v>
@@ -1763,19 +1763,19 @@
         <v>172792</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>159928</v>
+        <v>161191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>183021</v>
+        <v>183504</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8276369139291286</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7660216315314423</v>
+        <v>0.7720749018959784</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8766335760617774</v>
+        <v>0.8789497114985013</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>309</v>
@@ -1784,19 +1784,19 @@
         <v>297767</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>282429</v>
+        <v>283985</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>309683</v>
+        <v>309370</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8606098452239931</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.816279161022238</v>
+        <v>0.8207770890143515</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.895050407056569</v>
+        <v>0.8941471511397409</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>10160</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5219</v>
+        <v>5382</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18270</v>
+        <v>16991</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02022070351753216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0103857860136475</v>
+        <v>0.01071092635322076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03636025104512273</v>
+        <v>0.0338151960528918</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1909,19 +1909,19 @@
         <v>38380</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26706</v>
+        <v>27971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52318</v>
+        <v>52113</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05670481792306725</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03945668250344008</v>
+        <v>0.04132545520343352</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07729658119088308</v>
+        <v>0.07699462393335799</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -1930,19 +1930,19 @@
         <v>48540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36315</v>
+        <v>36073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63928</v>
+        <v>63351</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04116008560932766</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03079325108939423</v>
+        <v>0.03058844268970411</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05420833659400453</v>
+        <v>0.05371854152580184</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>40416</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29649</v>
+        <v>30477</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52490</v>
+        <v>55443</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08043437796459244</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05900717343362737</v>
+        <v>0.06065437084536378</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1044649370696585</v>
+        <v>0.1103416697779704</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>73</v>
@@ -1980,19 +1980,19 @@
         <v>80244</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>64206</v>
+        <v>64208</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>97957</v>
+        <v>97670</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1185571054138482</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09486148931228736</v>
+        <v>0.09486397176054281</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1447271581509527</v>
+        <v>0.1443024763747686</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>116</v>
@@ -2001,19 +2001,19 @@
         <v>120660</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>101295</v>
+        <v>102096</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>143345</v>
+        <v>141687</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1023142116798447</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08589376779862201</v>
+        <v>0.08657291640254704</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1215498101655252</v>
+        <v>0.1201445294809417</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>451890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>438273</v>
+        <v>435923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>464297</v>
+        <v>462814</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8993449185178755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8722447262651011</v>
+        <v>0.8675663120536183</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9240356724085217</v>
+        <v>0.9210859035042662</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>552</v>
@@ -2051,19 +2051,19 @@
         <v>558217</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>536716</v>
+        <v>535947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>577710</v>
+        <v>577143</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8247380766630845</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7929703169865571</v>
+        <v>0.7918341290314475</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.853537008522698</v>
+        <v>0.8526993569999169</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1021</v>
@@ -2072,19 +2072,19 @@
         <v>1010108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>982564</v>
+        <v>985709</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1032455</v>
+        <v>1033098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8565257027108276</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8331700646599232</v>
+        <v>0.8358365180710517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8754754483033093</v>
+        <v>0.8760207029452318</v>
       </c>
     </row>
     <row r="23">
@@ -2416,19 +2416,19 @@
         <v>4241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10731</v>
+        <v>9496</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03039105270883283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007595665759878717</v>
+        <v>0.007727961707872938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07689566563744686</v>
+        <v>0.06804805149302544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2437,19 +2437,19 @@
         <v>17891</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10954</v>
+        <v>10776</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27789</v>
+        <v>27236</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1072688667260502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06567724998606529</v>
+        <v>0.06460957740191242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1666124936994298</v>
+        <v>0.1632966410770563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2458,19 +2458,19 @@
         <v>22132</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14610</v>
+        <v>14246</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31831</v>
+        <v>32541</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07224795580742485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04769444818594781</v>
+        <v>0.04650462555563201</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1039078413886524</v>
+        <v>0.1062261252495292</v>
       </c>
     </row>
     <row r="5">
@@ -2487,19 +2487,19 @@
         <v>10915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5987</v>
+        <v>5673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18356</v>
+        <v>18275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07821844171570108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04290462583926222</v>
+        <v>0.04065234307417803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1315418252725995</v>
+        <v>0.130957184689878</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2508,19 +2508,19 @@
         <v>22352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13754</v>
+        <v>13891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33343</v>
+        <v>31651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1340182094751643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08246729411034932</v>
+        <v>0.08328730276973209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.199914220829362</v>
+        <v>0.1897674727571117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -2529,19 +2529,19 @@
         <v>33268</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23060</v>
+        <v>23323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44819</v>
+        <v>45998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1085991894241195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07527744259313122</v>
+        <v>0.07613591839136837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1463080799517311</v>
+        <v>0.1501577432560985</v>
       </c>
     </row>
     <row r="6">
@@ -2558,19 +2558,19 @@
         <v>124391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116018</v>
+        <v>116187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130534</v>
+        <v>130635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8913905055754661</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8313876212462433</v>
+        <v>0.8326001927218296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9354123625921721</v>
+        <v>0.9361363548748752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -2579,19 +2579,19 @@
         <v>126543</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114211</v>
+        <v>116062</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137145</v>
+        <v>137305</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7587129237987855</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6847720056497482</v>
+        <v>0.6958668655915294</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.822277336271098</v>
+        <v>0.8232366596423407</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>234</v>
@@ -2600,19 +2600,19 @@
         <v>250934</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>236605</v>
+        <v>234733</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>263971</v>
+        <v>263773</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8191528547684557</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7723763928470141</v>
+        <v>0.7662651056139975</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8617105113945053</v>
+        <v>0.8610641649591934</v>
       </c>
     </row>
     <row r="7">
@@ -2704,19 +2704,19 @@
         <v>15263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8786</v>
+        <v>8811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25609</v>
+        <v>25095</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09855003004984343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05672581120734594</v>
+        <v>0.05688795519423174</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1653468162150946</v>
+        <v>0.1620285809844808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -2725,19 +2725,19 @@
         <v>32711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23346</v>
+        <v>22441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44821</v>
+        <v>43671</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1708845804150008</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1219599141518711</v>
+        <v>0.1172346180537477</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2341520417063286</v>
+        <v>0.2281435793062823</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -2746,19 +2746,19 @@
         <v>47974</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35809</v>
+        <v>35335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62427</v>
+        <v>62395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1385337326176521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1034049698232837</v>
+        <v>0.1020365825413742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1802688081837988</v>
+        <v>0.1801779325813029</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>16074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8721</v>
+        <v>8732</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25312</v>
+        <v>25820</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1037843540647353</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05630935862150189</v>
+        <v>0.05638128634159272</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1634286500708593</v>
+        <v>0.1667123264776415</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -2796,19 +2796,19 @@
         <v>30443</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21306</v>
+        <v>21343</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41430</v>
+        <v>42005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1590401056550011</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1113066351313323</v>
+        <v>0.1114975144815366</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2164363660191328</v>
+        <v>0.2194368236861473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -2817,19 +2817,19 @@
         <v>46517</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33592</v>
+        <v>34328</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>60344</v>
+        <v>60606</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1343275664797269</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0970025798875581</v>
+        <v>0.0991277627300565</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1742532441265631</v>
+        <v>0.1750105914850599</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>123541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111740</v>
+        <v>111773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133019</v>
+        <v>133727</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7976656158854213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7214710259429754</v>
+        <v>0.7216840412757042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8588654203612016</v>
+        <v>0.8634352669654303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -2867,19 +2867,19 @@
         <v>128266</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114180</v>
+        <v>114882</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141122</v>
+        <v>140843</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6700753139299982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5964879605574864</v>
+        <v>0.6001554285734916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7372394303490479</v>
+        <v>0.7357776847184978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -2888,19 +2888,19 @@
         <v>251807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>234869</v>
+        <v>235547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>267814</v>
+        <v>266708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.727138700902621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6782267198180643</v>
+        <v>0.6801844141528451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7733638297495796</v>
+        <v>0.7701702821461721</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>6471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2140</v>
+        <v>2154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14432</v>
+        <v>14341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06245988346125279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02065673206719876</v>
+        <v>0.02079498313056393</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.139306550916682</v>
+        <v>0.1384337441322002</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -3013,19 +3013,19 @@
         <v>20636</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13934</v>
+        <v>13173</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31770</v>
+        <v>30008</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1463347254222709</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09881151981835687</v>
+        <v>0.09341561859792136</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2252923073356231</v>
+        <v>0.2127947107338197</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -3034,19 +3034,19 @@
         <v>27107</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18374</v>
+        <v>17879</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39787</v>
+        <v>37848</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1108127137077745</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07511440377846132</v>
+        <v>0.07308892546874479</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1626517122328866</v>
+        <v>0.1547228263281061</v>
       </c>
     </row>
     <row r="13">
@@ -3063,19 +3063,19 @@
         <v>12906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6364</v>
+        <v>6267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22865</v>
+        <v>22251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.124575033416734</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06142844121914477</v>
+        <v>0.06049172443036385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2207099572360708</v>
+        <v>0.2147839270142179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3084,19 +3084,19 @@
         <v>15966</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9661</v>
+        <v>9074</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24657</v>
+        <v>24107</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1132165741296969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0685097386888763</v>
+        <v>0.06434843198218042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1748454473859422</v>
+        <v>0.1709513335332191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -3105,19 +3105,19 @@
         <v>28871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19952</v>
+        <v>18893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42992</v>
+        <v>41423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1180270192455313</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08156397049439228</v>
+        <v>0.07723336079242339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1757506454496197</v>
+        <v>0.1693396814281436</v>
       </c>
     </row>
     <row r="14">
@@ -3134,19 +3134,19 @@
         <v>84222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73716</v>
+        <v>73134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92706</v>
+        <v>91952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8129650831220132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7115623279799727</v>
+        <v>0.7059387962869885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.894863520415026</v>
+        <v>0.8875887121664211</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -3155,19 +3155,19 @@
         <v>104417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92407</v>
+        <v>93957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114392</v>
+        <v>116103</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7404487004480322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6552836301444646</v>
+        <v>0.666269539767081</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8111843895918577</v>
+        <v>0.8233146852578287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>171</v>
@@ -3176,19 +3176,19 @@
         <v>188639</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>173617</v>
+        <v>174599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200889</v>
+        <v>201226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7711602670466943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7097514427772728</v>
+        <v>0.7137667898115384</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.821240201387869</v>
+        <v>0.8226148617234559</v>
       </c>
     </row>
     <row r="15">
@@ -3280,19 +3280,19 @@
         <v>8878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4794</v>
+        <v>3991</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15777</v>
+        <v>15604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05493451676557025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02966569095701496</v>
+        <v>0.02469782620632348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09761992260677602</v>
+        <v>0.09655199471887801</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -3301,19 +3301,19 @@
         <v>17693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11229</v>
+        <v>10755</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27046</v>
+        <v>27314</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07258587159838104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04606814615544994</v>
+        <v>0.04412108138940684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1109589882200223</v>
+        <v>0.1120555109031104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -3322,19 +3322,19 @@
         <v>26571</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17688</v>
+        <v>17577</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37287</v>
+        <v>37362</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06554848879736021</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04363424615032521</v>
+        <v>0.04336219475900952</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0919839299265434</v>
+        <v>0.09216986448812854</v>
       </c>
     </row>
     <row r="17">
@@ -3351,19 +3351,19 @@
         <v>14678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7594</v>
+        <v>7449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26406</v>
+        <v>26167</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0908203442663484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04698858161470012</v>
+        <v>0.0460927218775231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.163392252646109</v>
+        <v>0.1619094911424946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -3372,19 +3372,19 @@
         <v>34423</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24289</v>
+        <v>24226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46141</v>
+        <v>46258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1412221766725661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09964580296373764</v>
+        <v>0.09938815823686548</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1892968395103309</v>
+        <v>0.1897767114785925</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -3393,19 +3393,19 @@
         <v>49101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37194</v>
+        <v>36636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65311</v>
+        <v>64990</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1211275724976996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09175445685539897</v>
+        <v>0.09037910779977711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1611166269244845</v>
+        <v>0.1603242665538082</v>
       </c>
     </row>
     <row r="18">
@@ -3422,19 +3422,19 @@
         <v>138057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>126652</v>
+        <v>125283</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>146087</v>
+        <v>146226</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8542451389680814</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7836743695882545</v>
+        <v>0.775204993051486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.903930254076446</v>
+        <v>0.9047898991700879</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>182</v>
@@ -3443,19 +3443,19 @@
         <v>191634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>177926</v>
+        <v>178165</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203952</v>
+        <v>203107</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7861919517290529</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7299516735657113</v>
+        <v>0.7309335533770263</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.836727476143167</v>
+        <v>0.8332608906981496</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>309</v>
@@ -3464,19 +3464,19 @@
         <v>329691</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>311231</v>
+        <v>311626</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>344389</v>
+        <v>344183</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8133239387049402</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7677828088946932</v>
+        <v>0.7687584076923978</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8495827503421094</v>
+        <v>0.8490727922071292</v>
       </c>
     </row>
     <row r="19">
@@ -3568,19 +3568,19 @@
         <v>34853</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24329</v>
+        <v>24805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48927</v>
+        <v>48046</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06227807919669241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0434731664932234</v>
+        <v>0.04432283558927154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08742673051036244</v>
+        <v>0.08585212469473634</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -3589,19 +3589,19 @@
         <v>88930</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71927</v>
+        <v>71640</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109943</v>
+        <v>108566</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1196950826133664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09680920976593393</v>
+        <v>0.09642333827744194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1479762179473668</v>
+        <v>0.1461233680033835</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -3610,19 +3610,19 @@
         <v>123784</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100725</v>
+        <v>103593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146797</v>
+        <v>147589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09502719933632449</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07732530824385665</v>
+        <v>0.07952689489519962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1126947218215579</v>
+        <v>0.1133022779523005</v>
       </c>
     </row>
     <row r="21">
@@ -3639,19 +3639,19 @@
         <v>54573</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41143</v>
+        <v>40717</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70388</v>
+        <v>73218</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09751433032443246</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07351770140351449</v>
+        <v>0.0727561974816541</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1257750894463307</v>
+        <v>0.1308313555037759</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>95</v>
@@ -3660,19 +3660,19 @@
         <v>103184</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>83192</v>
+        <v>84631</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>123524</v>
+        <v>124369</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.138880072357487</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1119720410530316</v>
+        <v>0.1139087140032675</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1662558507235981</v>
+        <v>0.1673938018670999</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>141</v>
@@ -3681,19 +3681,19 @@
         <v>157757</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>135594</v>
+        <v>133683</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>184024</v>
+        <v>182821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1211082410981203</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1040939801280105</v>
+        <v>0.1026268728864224</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1412727824450771</v>
+        <v>0.1403491602867249</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         <v>470211</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>449688</v>
+        <v>449916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>487125</v>
+        <v>487638</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8402075904788752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8035349441778581</v>
+        <v>0.8039426017139168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.870429819246837</v>
+        <v>0.8713471998648797</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>518</v>
@@ -3731,19 +3731,19 @@
         <v>550860</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>524651</v>
+        <v>525941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>574967</v>
+        <v>575007</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7414248450291466</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7061490678337535</v>
+        <v>0.7078845511368418</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7738711438597647</v>
+        <v>0.7739247741532866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>945</v>
@@ -3752,19 +3752,19 @@
         <v>1021071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>988393</v>
+        <v>988587</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1051290</v>
+        <v>1050326</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7838645595655552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.758778019441255</v>
+        <v>0.7589267824141088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8070634109814018</v>
+        <v>0.8063230312152294</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>12136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6668</v>
+        <v>6771</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18959</v>
+        <v>19496</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08875361001450564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04876534182855571</v>
+        <v>0.04951619166303953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1386524913582566</v>
+        <v>0.1425854494617698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4117,19 +4117,19 @@
         <v>10294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4836</v>
+        <v>4444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19783</v>
+        <v>18976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05936880652546717</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0278896818117256</v>
+        <v>0.02563096073976329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1140919228821442</v>
+        <v>0.1094392009633655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -4138,19 +4138,19 @@
         <v>22430</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13967</v>
+        <v>14422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31813</v>
+        <v>34184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07232456172792331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04503549161443478</v>
+        <v>0.04650422576113453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1025825557188919</v>
+        <v>0.1102256773890233</v>
       </c>
     </row>
     <row r="5">
@@ -4167,19 +4167,19 @@
         <v>8498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4116</v>
+        <v>4085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14938</v>
+        <v>14516</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06214987390488806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03010220647401128</v>
+        <v>0.02987700067036468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.109247690508853</v>
+        <v>0.1061590329457304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -4188,19 +4188,19 @@
         <v>33696</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23485</v>
+        <v>23212</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45697</v>
+        <v>45858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1943377511071425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1354431160499106</v>
+        <v>0.1338696113551137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2635515705425625</v>
+        <v>0.2644758313025284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -4209,19 +4209,19 @@
         <v>42194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31214</v>
+        <v>30237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55756</v>
+        <v>56747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1360561369931125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1006485826717318</v>
+        <v>0.09749943864309259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1797859248060637</v>
+        <v>0.1829818509208695</v>
       </c>
     </row>
     <row r="6">
@@ -4238,19 +4238,19 @@
         <v>116100</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108431</v>
+        <v>107261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123304</v>
+        <v>123203</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8490965160806063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7930102368970625</v>
+        <v>0.784451784671245</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9017800166811309</v>
+        <v>0.9010437406827041</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -4259,19 +4259,19 @@
         <v>129401</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116221</v>
+        <v>116660</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>140675</v>
+        <v>141053</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7462934423673904</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6702845830332269</v>
+        <v>0.6728143625054285</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8113161800617607</v>
+        <v>0.8134962474562003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>243</v>
@@ -4280,19 +4280,19 @@
         <v>245501</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>231067</v>
+        <v>229177</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>259110</v>
+        <v>258452</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7916193012789642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7450763284073106</v>
+        <v>0.7389825957553355</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8355002058386255</v>
+        <v>0.8333800900016463</v>
       </c>
     </row>
     <row r="7">
@@ -4384,19 +4384,19 @@
         <v>7732</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3635</v>
+        <v>3492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15503</v>
+        <v>13866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04687462220361691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0220377631067978</v>
+        <v>0.02117103796697657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09399187838019833</v>
+        <v>0.08406482486521984</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -4405,19 +4405,19 @@
         <v>18418</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10237</v>
+        <v>10857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29908</v>
+        <v>30084</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08403847723009057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04670943223950944</v>
+        <v>0.04953723423504891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.136463351742562</v>
+        <v>0.1372680100733072</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -4426,19 +4426,19 @@
         <v>26150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16951</v>
+        <v>16300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38569</v>
+        <v>36839</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.068079680838456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04413090262867288</v>
+        <v>0.04243681316121814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.100411913758889</v>
+        <v>0.09590913279477782</v>
       </c>
     </row>
     <row r="9">
@@ -4455,19 +4455,19 @@
         <v>20288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13000</v>
+        <v>13251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28733</v>
+        <v>28617</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1230031120228212</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07881565417097509</v>
+        <v>0.08033621200994609</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.174203482252484</v>
+        <v>0.1734997112485768</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -4476,19 +4476,19 @@
         <v>35808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24958</v>
+        <v>24920</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48931</v>
+        <v>49238</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1633872229537763</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1138798462573918</v>
+        <v>0.1137067730077495</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2232648121985364</v>
+        <v>0.2246637421988477</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>52</v>
@@ -4497,19 +4497,19 @@
         <v>56097</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>42823</v>
+        <v>42938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70241</v>
+        <v>70658</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1460455934768235</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1114888222640413</v>
+        <v>0.1117868096500681</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1828689821989883</v>
+        <v>0.1839545808851266</v>
       </c>
     </row>
     <row r="10">
@@ -4526,19 +4526,19 @@
         <v>136921</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127230</v>
+        <v>127383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145658</v>
+        <v>144726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.830122265773562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7713666530166707</v>
+        <v>0.7722942409060313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8830900025729345</v>
+        <v>0.8774430434570916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -4547,19 +4547,19 @@
         <v>164936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149251</v>
+        <v>150653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178004</v>
+        <v>178089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7525742998161331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6810066753033396</v>
+        <v>0.6874007029902179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8122007295231827</v>
+        <v>0.8125868531409082</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -4568,19 +4568,19 @@
         <v>301858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283715</v>
+        <v>284094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>316966</v>
+        <v>317361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7858747256847205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7386418717183538</v>
+        <v>0.7396281403914033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8252087677470615</v>
+        <v>0.826236691387889</v>
       </c>
     </row>
     <row r="11">
@@ -4672,19 +4672,19 @@
         <v>2785</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7984</v>
+        <v>6829</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02420603103788727</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007147386662957345</v>
+        <v>0.006829884745100448</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06940392693157178</v>
+        <v>0.0593617728112178</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -4693,19 +4693,19 @@
         <v>16674</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9336</v>
+        <v>9516</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27184</v>
+        <v>26746</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1169347041476473</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06547445807908842</v>
+        <v>0.06673604273659609</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1906331079123772</v>
+        <v>0.187565403143158</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -4714,19 +4714,19 @@
         <v>19459</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11780</v>
+        <v>12184</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30997</v>
+        <v>30774</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07553035102377756</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04572523334861849</v>
+        <v>0.04729087442819727</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1203163026881253</v>
+        <v>0.1194489657375481</v>
       </c>
     </row>
     <row r="13">
@@ -4743,19 +4743,19 @@
         <v>9487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4584</v>
+        <v>4502</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15754</v>
+        <v>16010</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08247002330531315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03984709565043398</v>
+        <v>0.03913618961177606</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1369492823439516</v>
+        <v>0.139179160199794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4764,19 +4764,19 @@
         <v>23915</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15721</v>
+        <v>15465</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34270</v>
+        <v>34617</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1677144732285244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1102453242874496</v>
+        <v>0.1084562333755047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2403262796983838</v>
+        <v>0.242763988991766</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -4785,19 +4785,19 @@
         <v>33402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23339</v>
+        <v>23145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47622</v>
+        <v>45475</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1296519065152822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0905908806897614</v>
+        <v>0.08983693031036742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1848462351982443</v>
+        <v>0.1765119162346647</v>
       </c>
     </row>
     <row r="14">
@@ -4814,19 +4814,19 @@
         <v>102764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95930</v>
+        <v>95214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108280</v>
+        <v>108376</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8933239456567996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8339165311107614</v>
+        <v>0.8276985445561696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9412814684068628</v>
+        <v>0.9421127565121338</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -4835,19 +4835,19 @@
         <v>102006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89624</v>
+        <v>90266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113309</v>
+        <v>113822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7153508226238283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6285149045430262</v>
+        <v>0.6330180619334833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7946124849341052</v>
+        <v>0.7982141002931661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>186</v>
@@ -4856,19 +4856,19 @@
         <v>204770</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187264</v>
+        <v>190002</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>217313</v>
+        <v>217578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7948177424609402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.726867400062469</v>
+        <v>0.7374950354614862</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8435063332608743</v>
+        <v>0.8445342166073709</v>
       </c>
     </row>
     <row r="15">
@@ -4960,19 +4960,19 @@
         <v>9608</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4315</v>
+        <v>5141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16925</v>
+        <v>17652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05502540941906378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02471127723958004</v>
+        <v>0.02944262809625531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09692454521465221</v>
+        <v>0.1010917207744527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4981,19 +4981,19 @@
         <v>10064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4812</v>
+        <v>5049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18987</v>
+        <v>19281</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04145150796407013</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01982032282265686</v>
+        <v>0.02079546616351706</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07820832320941037</v>
+        <v>0.07941760177271032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -5002,19 +5002,19 @@
         <v>19672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11101</v>
+        <v>11777</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29534</v>
+        <v>30394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04713012399022589</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02659602029249838</v>
+        <v>0.02821583502743119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07075794205787846</v>
+        <v>0.0728181817163147</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>12205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6976</v>
+        <v>6548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20728</v>
+        <v>19248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06989547951521677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03995119253696195</v>
+        <v>0.03749734291243309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1187029484614041</v>
+        <v>0.1102274803292713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -5052,19 +5052,19 @@
         <v>40443</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28806</v>
+        <v>28650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55539</v>
+        <v>55317</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1665835977095866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1186512339012863</v>
+        <v>0.1180063961705292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2287615634047145</v>
+        <v>0.2278485748376912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -5073,19 +5073,19 @@
         <v>52648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38346</v>
+        <v>38766</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67881</v>
+        <v>68738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.126134306152707</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09186894029963077</v>
+        <v>0.09287513547529858</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1626292218669805</v>
+        <v>0.1646808298693838</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>152805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>143202</v>
+        <v>143309</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160403</v>
+        <v>160516</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8750791110657195</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8200873927339174</v>
+        <v>0.820701630736609</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9185955903361647</v>
+        <v>0.9192427842833851</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>160</v>
@@ -5123,19 +5123,19 @@
         <v>192274</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>175048</v>
+        <v>176226</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>204396</v>
+        <v>204731</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7919648943263432</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7210126155891922</v>
+        <v>0.7258642265911202</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8418956616788417</v>
+        <v>0.8432753910397695</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>326</v>
@@ -5144,19 +5144,19 @@
         <v>345079</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>328176</v>
+        <v>325099</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>361072</v>
+        <v>359815</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8267355698570671</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7862396733555639</v>
+        <v>0.7788672712543553</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8650508464309346</v>
+        <v>0.8620384164696375</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>32260</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22719</v>
+        <v>22705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44770</v>
+        <v>44076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05455542492048411</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03841946899603207</v>
+        <v>0.03839651981404961</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07571147070956769</v>
+        <v>0.0745368441144748</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -5269,19 +5269,19 @@
         <v>55450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40790</v>
+        <v>40326</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71823</v>
+        <v>72594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07127906732042735</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0524339280705819</v>
+        <v>0.05183689006502288</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09232630200753714</v>
+        <v>0.09331660590668518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -5290,19 +5290,19 @@
         <v>87710</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71483</v>
+        <v>69643</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107889</v>
+        <v>106731</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0640567974664135</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05220579155340997</v>
+        <v>0.05086185222670032</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07879351250198061</v>
+        <v>0.07794782986497031</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>50478</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38892</v>
+        <v>37802</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62378</v>
+        <v>63121</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08536412006329425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06577108377846161</v>
+        <v>0.06392744277015769</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1054885921274278</v>
+        <v>0.1067445749666216</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>109</v>
@@ -5340,19 +5340,19 @@
         <v>133864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>112500</v>
+        <v>111568</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>155619</v>
+        <v>158653</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1720764301515288</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1446148164558944</v>
+        <v>0.1434168353646848</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2000424032878867</v>
+        <v>0.2039422198086349</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>166</v>
@@ -5361,19 +5361,19 @@
         <v>184342</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>158917</v>
+        <v>159991</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>209742</v>
+        <v>213256</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1346288641162563</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1160608427974742</v>
+        <v>0.1168450446537715</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1531794422695494</v>
+        <v>0.1557455089207319</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>508590</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>492841</v>
+        <v>492349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>524650</v>
+        <v>523682</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8600804550162217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8334477489397327</v>
+        <v>0.8326159561442354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8872399086711945</v>
+        <v>0.8856028143615609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>503</v>
@@ -5411,19 +5411,19 @@
         <v>588617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>563044</v>
+        <v>562186</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>612537</v>
+        <v>614039</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7566445025280438</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7237715648372001</v>
+        <v>0.7226681359290479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7873928545081841</v>
+        <v>0.7893232692808138</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1038</v>
@@ -5432,19 +5432,19 @@
         <v>1097207</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1069500</v>
+        <v>1065959</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1126965</v>
+        <v>1126778</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8013143384173302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7810790785032671</v>
+        <v>0.7784933662125165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8230474518599463</v>
+        <v>0.8229110071611139</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>9544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5965</v>
+        <v>5720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15735</v>
+        <v>15311</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05880062553007104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03674919796283593</v>
+        <v>0.03524346961165867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09694638234274916</v>
+        <v>0.09432903848911266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -5797,19 +5797,19 @@
         <v>29349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23021</v>
+        <v>22751</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37024</v>
+        <v>36567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1536383832614546</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1205109565525463</v>
+        <v>0.1190987713291804</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1938117087279733</v>
+        <v>0.1914203396229603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -5818,19 +5818,19 @@
         <v>38893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30882</v>
+        <v>31110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47715</v>
+        <v>47261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1100736688064494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08739992071301263</v>
+        <v>0.08804534951116724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1350396279820202</v>
+        <v>0.1337567758804293</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>15539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9910</v>
+        <v>10448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22416</v>
+        <v>22224</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09573409561351416</v>
+        <v>0.09573409561351418</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06105401992063281</v>
+        <v>0.06437021523460017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1381041192228666</v>
+        <v>0.1369203401185878</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -5868,19 +5868,19 @@
         <v>36057</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29300</v>
+        <v>28918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43884</v>
+        <v>43210</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1887536948868952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1533814204211773</v>
+        <v>0.1513827411853069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2297260373309309</v>
+        <v>0.2261979718810272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -5889,19 +5889,19 @@
         <v>51596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42423</v>
+        <v>42559</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61868</v>
+        <v>61797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1460241705075683</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1200640971912989</v>
+        <v>0.1204475605265458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1750966096381747</v>
+        <v>0.1748943805126323</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>137227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129133</v>
+        <v>129655</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>144300</v>
+        <v>143341</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8454652788564146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7955936309187832</v>
+        <v>0.7988124413158025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8890386761910528</v>
+        <v>0.8831282738169394</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>294</v>
@@ -5939,19 +5939,19 @@
         <v>125622</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116689</v>
+        <v>117349</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>134311</v>
+        <v>134479</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6576079218516502</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6108455870298046</v>
+        <v>0.6142998190415048</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7030931704256026</v>
+        <v>0.7039705333237397</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>500</v>
@@ -5960,19 +5960,19 @@
         <v>262850</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>250611</v>
+        <v>249600</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>274256</v>
+        <v>274157</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7439021606859822</v>
+        <v>0.7439021606859824</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7092645117425508</v>
+        <v>0.7064037763629893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7761824964959392</v>
+        <v>0.7759023197303618</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>12329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7976</v>
+        <v>8100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17999</v>
+        <v>17980</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06918419793041253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04475592022469582</v>
+        <v>0.045452722051616</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1010010963666443</v>
+        <v>0.1008975881433038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -6085,19 +6085,19 @@
         <v>26505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20430</v>
+        <v>20090</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34717</v>
+        <v>34553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1097896264798986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08462725752820893</v>
+        <v>0.0832191313590793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1438063067943212</v>
+        <v>0.1431283708853962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -6106,19 +6106,19 @@
         <v>38833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30462</v>
+        <v>31454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47948</v>
+        <v>48321</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09254519179450435</v>
+        <v>0.09254519179450431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07259419071660328</v>
+        <v>0.07495902329435659</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1142664096875717</v>
+        <v>0.1151547557318243</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>13315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8299</v>
+        <v>8355</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19921</v>
+        <v>20707</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07471838764542554</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04657186441489133</v>
+        <v>0.04688536633981123</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1117858474203173</v>
+        <v>0.1161990736069533</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -6156,19 +6156,19 @@
         <v>47532</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39239</v>
+        <v>38769</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>57466</v>
+        <v>57780</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1968925394741135</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1625399124287542</v>
+        <v>0.1605908191040162</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2380425523732817</v>
+        <v>0.2393412958399811</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>106</v>
@@ -6177,19 +6177,19 @@
         <v>60847</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51294</v>
+        <v>50651</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>73290</v>
+        <v>72162</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1450072557395593</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1222396486449652</v>
+        <v>0.1207091570355549</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1746595823255924</v>
+        <v>0.1719725296787249</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>152560</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143821</v>
+        <v>144255</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158882</v>
+        <v>159735</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8560974144241619</v>
+        <v>0.856097414424162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8070580726715121</v>
+        <v>0.8094911189310514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8915755416369345</v>
+        <v>0.8963627469781885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>309</v>
@@ -6227,19 +6227,19 @@
         <v>167375</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156269</v>
+        <v>155497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176533</v>
+        <v>176979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6933178340459879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6473106808093221</v>
+        <v>0.644115220308527</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7312500587857396</v>
+        <v>0.7330991179682368</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>521</v>
@@ -6248,19 +6248,19 @@
         <v>319935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>305084</v>
+        <v>305792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331876</v>
+        <v>333256</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7624475524659364</v>
+        <v>0.7624475524659363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7270540480711558</v>
+        <v>0.7287429576265677</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7909050701670147</v>
+        <v>0.7941930884444993</v>
       </c>
     </row>
     <row r="11">
@@ -6352,19 +6352,19 @@
         <v>7823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3855</v>
+        <v>4126</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14273</v>
+        <v>15466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04896200226348301</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02412870089300137</v>
+        <v>0.02582525759023301</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08932829692715182</v>
+        <v>0.09678958451843915</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -6373,19 +6373,19 @@
         <v>17383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11656</v>
+        <v>12193</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24888</v>
+        <v>25181</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09972910604257382</v>
+        <v>0.0997291060425738</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06687444510929781</v>
+        <v>0.06995246843826902</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1427857125164507</v>
+        <v>0.1444681314782349</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>34</v>
@@ -6394,19 +6394,19 @@
         <v>25206</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17969</v>
+        <v>17891</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35232</v>
+        <v>36068</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07544847355052652</v>
+        <v>0.0754484735505265</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05378603056767518</v>
+        <v>0.05355115405445128</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1054567237737964</v>
+        <v>0.1079602075654625</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>15299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9924</v>
+        <v>9579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22938</v>
+        <v>23462</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09574979528565297</v>
+        <v>0.09574979528565299</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06210731784970537</v>
+        <v>0.05994800396962576</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1435571417786878</v>
+        <v>0.1468327618497635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -6444,19 +6444,19 @@
         <v>30307</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22700</v>
+        <v>23580</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38272</v>
+        <v>39201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1738766575052297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1302356646668763</v>
+        <v>0.135284295052961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2195719804501973</v>
+        <v>0.2249035429159184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -6465,19 +6465,19 @@
         <v>45606</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36473</v>
+        <v>36343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57692</v>
+        <v>56813</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1365105387373583</v>
+        <v>0.1365105387373584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1091735968523032</v>
+        <v>0.1087841378680449</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1726866075957723</v>
+        <v>0.1700541854639245</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>136662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127851</v>
+        <v>127307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143935</v>
+        <v>143754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8552882024508639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8001469215162509</v>
+        <v>0.796736948950862</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.900805245502346</v>
+        <v>0.8996723447642471</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>213</v>
@@ -6515,19 +6515,19 @@
         <v>126611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117240</v>
+        <v>116471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136126</v>
+        <v>135328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7263942364521964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6726301740044179</v>
+        <v>0.6682200719885567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7809805093420475</v>
+        <v>0.7764020200179055</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>378</v>
@@ -6536,19 +6536,19 @@
         <v>263273</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249224</v>
+        <v>249723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275107</v>
+        <v>275565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7880409877121151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7459889735835041</v>
+        <v>0.7474841620177732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8234647957844596</v>
+        <v>0.8248335943687692</v>
       </c>
     </row>
     <row r="15">
@@ -6640,19 +6640,19 @@
         <v>11882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7514</v>
+        <v>7875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18115</v>
+        <v>18026</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05524358941358491</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03493389075742791</v>
+        <v>0.03661154110038591</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08422128532178388</v>
+        <v>0.08380728087628646</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -6661,19 +6661,19 @@
         <v>31384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23617</v>
+        <v>23678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40391</v>
+        <v>40011</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1066726299274738</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08027195116244333</v>
+        <v>0.08048032055146942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1372859423134329</v>
+        <v>0.1359948132669622</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -6682,19 +6682,19 @@
         <v>43266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34539</v>
+        <v>35230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53033</v>
+        <v>54496</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08495292479886189</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06781739955930795</v>
+        <v>0.06917327738452464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1041291705194868</v>
+        <v>0.1070027388760365</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>21232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14561</v>
+        <v>15291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28385</v>
+        <v>28906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09871036421253129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06769589653112994</v>
+        <v>0.07109223211876067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1319679248068625</v>
+        <v>0.1343909318953662</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>92</v>
@@ -6732,19 +6732,19 @@
         <v>55642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45710</v>
+        <v>45079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66881</v>
+        <v>65351</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.18912342189367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1553643898205917</v>
+        <v>0.1532226349730893</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2273238393689534</v>
+        <v>0.2221232411488429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -6753,19 +6753,19 @@
         <v>76873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64118</v>
+        <v>64832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89271</v>
+        <v>90197</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1509398405359703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1258946195672984</v>
+        <v>0.1272968297754225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1752826214805041</v>
+        <v>0.1771011715996869</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>181975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173553</v>
+        <v>173404</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190196</v>
+        <v>189240</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8460460463738838</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8068879428585817</v>
+        <v>0.8061982253414689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8842647127392959</v>
+        <v>0.8798201297884288</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>375</v>
@@ -6803,19 +6803,19 @@
         <v>207183</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>194683</v>
+        <v>194295</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218722</v>
+        <v>219934</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7042039481788562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6617167624867881</v>
+        <v>0.6603994080971826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7434244292500543</v>
+        <v>0.7475440783883596</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>649</v>
@@ -6824,19 +6824,19 @@
         <v>389158</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>375343</v>
+        <v>374029</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>404275</v>
+        <v>403021</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7641072346651679</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7369819235158211</v>
+        <v>0.7344014626663291</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7937890085583634</v>
+        <v>0.791326827911587</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>41578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32620</v>
+        <v>31523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51939</v>
+        <v>52977</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0581202277729003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04559833276980587</v>
+        <v>0.04406387680519232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07260274942774764</v>
+        <v>0.0740534160547147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -6949,19 +6949,19 @@
         <v>104621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91664</v>
+        <v>91058</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120346</v>
+        <v>119959</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1161226921017878</v>
+        <v>0.1161226921017877</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.101741846141452</v>
+        <v>0.1010686764686682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1335761158512484</v>
+        <v>0.1331469758199245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>273</v>
@@ -6970,19 +6970,19 @@
         <v>146199</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127901</v>
+        <v>130141</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>163750</v>
+        <v>165409</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09045095679517351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07912994152417162</v>
+        <v>0.08051584672122492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1013093947260331</v>
+        <v>0.1023355617437347</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>65385</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52789</v>
+        <v>53801</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78119</v>
+        <v>77929</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09139741220762482</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07379088599996857</v>
+        <v>0.07520511178978356</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1091975768172057</v>
+        <v>0.1089333087540568</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>310</v>
@@ -7020,19 +7020,19 @@
         <v>169538</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>151395</v>
+        <v>152948</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>186818</v>
+        <v>187798</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1881770989869832</v>
+        <v>0.1881770989869833</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1680392656609425</v>
+        <v>0.1697633551415553</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2073562903624977</v>
+        <v>0.2084440943637537</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>408</v>
@@ -7041,19 +7041,19 @@
         <v>234923</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>213975</v>
+        <v>213680</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>258088</v>
+        <v>256222</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1453426689191672</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1323825965564436</v>
+        <v>0.1321997958675111</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1596747662644432</v>
+        <v>0.1585199736530437</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>608424</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>593580</v>
+        <v>592746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>625273</v>
+        <v>622972</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.850482360019475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.829732672224418</v>
+        <v>0.8285668908151977</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8740346377534287</v>
+        <v>0.8708180529293658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1191</v>
@@ -7091,19 +7091,19 @@
         <v>626792</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>605554</v>
+        <v>608008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>646876</v>
+        <v>646855</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6957002089112289</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6721276146196408</v>
+        <v>0.6748510198630417</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7179927566425889</v>
+        <v>0.7179694808965724</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2048</v>
@@ -7112,19 +7112,19 @@
         <v>1235216</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1209396</v>
+        <v>1209465</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1261907</v>
+        <v>1259591</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7642063742856593</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7482322369794913</v>
+        <v>0.7482749397592661</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7807200116023145</v>
+        <v>0.7792868503640227</v>
       </c>
     </row>
     <row r="23">
